--- a/ideas/eCar.xlsx
+++ b/ideas/eCar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>MPH to m/s</t>
   </si>
@@ -224,6 +224,21 @@
   </si>
   <si>
     <t>kWh</t>
+  </si>
+  <si>
+    <t>Solenoid Diameter</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>cm2</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>Wire Length</t>
   </si>
 </sst>
 </file>
@@ -581,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1000"/>
+  <dimension ref="A1:R1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -753,7 +768,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <f>G15</f>
+        <f>G16</f>
         <v>50.395887695564042</v>
       </c>
       <c r="D7" s="1"/>
@@ -783,7 +798,9 @@
       <c r="C8" s="1">
         <v>0.5</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -805,7 +822,9 @@
         <f>3.141592654*C8*C8/4</f>
         <v>0.19634954087500001</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -825,7 +844,9 @@
       <c r="C10" s="1">
         <v>0.1</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -879,155 +900,160 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <f>C13*C3/C9</f>
-        <v>1098.6561479747827</v>
+        <f>C13*C3</f>
+        <v>215.72063023434467</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1">
+        <f>C13*C3*2.54*2.54/C9</f>
+        <v>7088.0900042741087</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G16" s="1">
         <f>G13/(G7+G8+G9)</f>
         <v>50.395887695564042</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1">
-        <v>300</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>300</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <f>60*C2</f>
         <v>26.822399999999998</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="1">
-        <f>G13*G15</f>
+      <c r="G18" s="1">
+        <f>G13*G16</f>
         <v>634.98818496410695</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1">
-        <f>C13/C16</f>
-        <v>3.1985621967341999</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C13/C17</f>
+        <v>3.1985621967341999</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1">
-        <f>SQRT(60*C2*2/C18)</f>
+      <c r="C20" s="1">
+        <f>SQRT(60*C2*2/C19)</f>
         <v>4.095306542585134</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21">
-        <f>C7*G13*C19</f>
-        <v>2600.4712683477665</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="1">
-        <f>G15*C19/3600</f>
-        <v>5.73296134997303E-2</v>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <f>C7*G13*C20</f>
+        <v>2600.4712683477665</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1038,11 +1064,11 @@
     <row r="23" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1">
-        <f>C22*G13/1000</f>
-        <v>7.2235313009660169E-4</v>
+        <f>G16*C20/3600</f>
+        <v>5.73296134997303E-2</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1052,23 +1078,24 @@
     </row>
     <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1">
+        <f>C23*G13/1000</f>
+        <v>7.2235313009660169E-4</v>
+      </c>
       <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="5">
-        <f>0.5*C16*C17*C17</f>
-        <v>107916.17126399999</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1076,180 +1103,131 @@
       <c r="B26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C26">
-        <f>C25/3600000</f>
-        <v>2.9976714239999997E-2</v>
+      <c r="C26" s="5">
+        <f>0.5*C17*C18*C18</f>
+        <v>107916.17126399999</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <f>C26/3600000</f>
+        <v>2.9976714239999997E-2</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="6"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29">
+        <f>C8+2*C10</f>
+        <v>0.7</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <f>C29*3.14*C6</f>
+        <v>384.65</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="1">
-        <f>75*C2</f>
-        <v>33.527999999999999</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="D31" s="6"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="D32" s="6"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="1">
-        <f>C31*3600</f>
-        <v>120700.79999999999</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1">
-        <f>0.5*C30*C31*C31*C28*C32</f>
-        <v>145.012355136</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="3">
-        <f>C34*C33</f>
-        <v>17503107.274799306</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="1">
-        <v>20</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1">
-        <f>F34/3600000</f>
-        <v>4.861974242999807</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36">
-        <f>C35*G13</f>
-        <v>252</v>
-      </c>
-      <c r="D36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1">
-        <f>F35/1000</f>
-        <v>4.8619742429998067E-3</v>
-      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="3">
-        <f>C36*3600</f>
-        <v>907200</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="C37" s="1">
+        <f>75*C2</f>
+        <v>33.527999999999999</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1258,13 +1236,14 @@
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1">
-        <f>C37/(3600000)</f>
-        <v>0.252</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1272,9 +1251,16 @@
     </row>
     <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="1">
+        <f>C37*3600</f>
+        <v>120700.79999999999</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1282,38 +1268,74 @@
     </row>
     <row r="40" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1">
+        <f>0.5*C36*C37*C37*C34*C38</f>
+        <v>145.012355136</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="F40" s="3">
+        <f>C40*C39</f>
+        <v>17503107.274799306</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="1">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="F41" s="1">
+        <f>F40/3600000</f>
+        <v>4.861974242999807</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <f>C41*G13</f>
+        <v>252</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1">
+        <f>F41/1000</f>
+        <v>4.8619742429998067E-3</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="3">
+        <f>C42*3600</f>
+        <v>907200</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1322,8 +1344,13 @@
     </row>
     <row r="44" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="1">
+        <f>C43/(3600000)</f>
+        <v>0.252</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -10890,6 +10917,66 @@
       <c r="G1000" s="1"/>
       <c r="H1000" s="1"/>
     </row>
+    <row r="1001" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+      <c r="D1001" s="1"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+    </row>
+    <row r="1002" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="1"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+    </row>
+    <row r="1003" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="1"/>
+      <c r="C1003" s="1"/>
+      <c r="D1003" s="1"/>
+      <c r="E1003" s="1"/>
+      <c r="F1003" s="1"/>
+      <c r="G1003" s="1"/>
+      <c r="H1003" s="1"/>
+    </row>
+    <row r="1004" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="1"/>
+      <c r="D1004" s="1"/>
+      <c r="E1004" s="1"/>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="1"/>
+      <c r="H1004" s="1"/>
+    </row>
+    <row r="1005" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="1"/>
+      <c r="D1005" s="1"/>
+      <c r="E1005" s="1"/>
+      <c r="F1005" s="1"/>
+      <c r="G1005" s="1"/>
+      <c r="H1005" s="1"/>
+    </row>
+    <row r="1006" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="1"/>
+      <c r="D1006" s="1"/>
+      <c r="E1006" s="1"/>
+      <c r="F1006" s="1"/>
+      <c r="G1006" s="1"/>
+      <c r="H1006" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
